--- a/US/data/EIA/PETR/Table_6.1_Coal_Overview.xlsx
+++ b/US/data/EIA/PETR/Table_6.1_Coal_Overview.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>February 2022 Monthly Energy Review</t>
+    <t>May 2022 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: February 24, 2022</t>
+    <t>Release Date: May 25, 2022</t>
   </si>
   <si>
-    <t>Next Update: March 29, 2022</t>
+    <t>Next Update: June 27, 2022</t>
   </si>
   <si>
     <t>Table 6.1 Coal Overview</t>
@@ -473,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -17303,13 +17303,13 @@
         <v>-5203.875</v>
       </c>
       <c r="G589">
-        <v>-3761.673</v>
+        <v>-3769.363</v>
       </c>
       <c r="H589">
-        <v>-1232.139</v>
+        <v>-1261.965</v>
       </c>
       <c r="I589">
-        <v>49116.963</v>
+        <v>49154.479</v>
       </c>
     </row>
     <row r="590" spans="1:9">
@@ -17332,13 +17332,13 @@
         <v>-7086.732</v>
       </c>
       <c r="G590">
-        <v>-15655.685</v>
+        <v>-15655.229</v>
       </c>
       <c r="H590">
-        <v>-1487.867</v>
+        <v>-1480.143</v>
       </c>
       <c r="I590">
-        <v>51664.837</v>
+        <v>51656.657</v>
       </c>
     </row>
     <row r="591" spans="1:9">
@@ -17361,13 +17361,13 @@
         <v>-7340.209</v>
       </c>
       <c r="G591">
-        <v>1632.876</v>
+        <v>1675.68</v>
       </c>
       <c r="H591">
-        <v>4219.23</v>
+        <v>4181.281</v>
       </c>
       <c r="I591">
-        <v>38367.757</v>
+        <v>38362.902</v>
       </c>
     </row>
     <row r="592" spans="1:9">
@@ -17390,13 +17390,13 @@
         <v>-6301.718</v>
       </c>
       <c r="G592">
-        <v>6400.008</v>
+        <v>6357.878</v>
       </c>
       <c r="H592">
-        <v>-627.595</v>
+        <v>-584.698</v>
       </c>
       <c r="I592">
-        <v>33692.579</v>
+        <v>33691.812</v>
       </c>
     </row>
     <row r="593" spans="1:9">
@@ -17419,13 +17419,13 @@
         <v>-6974.548</v>
       </c>
       <c r="G593">
-        <v>2897.096</v>
+        <v>2897.804</v>
       </c>
       <c r="H593">
-        <v>63.582</v>
+        <v>66.869</v>
       </c>
       <c r="I593">
-        <v>39256.917</v>
+        <v>39252.922</v>
       </c>
     </row>
     <row r="594" spans="1:9">
@@ -17448,13 +17448,13 @@
         <v>-7326.801</v>
       </c>
       <c r="G594">
-        <v>-11616.755</v>
+        <v>-11615.134</v>
       </c>
       <c r="H594">
-        <v>2103.615</v>
+        <v>2107.066</v>
       </c>
       <c r="I594">
-        <v>51626.527</v>
+        <v>51621.455</v>
       </c>
     </row>
     <row r="595" spans="1:9">
@@ -17465,7 +17465,7 @@
         <v>48475.408</v>
       </c>
       <c r="C595">
-        <v>782.365</v>
+        <v>782.328</v>
       </c>
       <c r="D595">
         <v>564.067</v>
@@ -17477,13 +17477,13 @@
         <v>-5946.8</v>
       </c>
       <c r="G595">
-        <v>-15388.123</v>
+        <v>-15387.39</v>
       </c>
       <c r="H595">
-        <v>-1345.477</v>
+        <v>-1344.446</v>
       </c>
       <c r="I595">
-        <v>60044.573</v>
+        <v>60042.772</v>
       </c>
     </row>
     <row r="596" spans="1:9">
@@ -17494,7 +17494,7 @@
         <v>50041.584</v>
       </c>
       <c r="C596">
-        <v>711.889</v>
+        <v>711.79</v>
       </c>
       <c r="D596">
         <v>368.13</v>
@@ -17506,13 +17506,13 @@
         <v>-7324.2</v>
       </c>
       <c r="G596">
-        <v>-12894.438</v>
+        <v>-12893.793</v>
       </c>
       <c r="H596">
-        <v>-3564.317</v>
+        <v>-3565.794</v>
       </c>
       <c r="I596">
-        <v>59888.028</v>
+        <v>59888.761</v>
       </c>
     </row>
     <row r="597" spans="1:9">
@@ -17523,7 +17523,7 @@
         <v>49762.177</v>
       </c>
       <c r="C597">
-        <v>624.35</v>
+        <v>624.318</v>
       </c>
       <c r="D597">
         <v>201.726</v>
@@ -17535,13 +17535,13 @@
         <v>-6313.278</v>
       </c>
       <c r="G597">
-        <v>-4767.404</v>
+        <v>-4766.971</v>
       </c>
       <c r="H597">
-        <v>911.07</v>
+        <v>910.878</v>
       </c>
       <c r="I597">
-        <v>47929.583</v>
+        <v>47929.31</v>
       </c>
     </row>
     <row r="598" spans="1:9">
@@ -17549,10 +17549,10 @@
         <v>44470</v>
       </c>
       <c r="B598">
-        <v>49347.633</v>
+        <v>49078.793</v>
       </c>
       <c r="C598">
-        <v>666.989</v>
+        <v>572.742</v>
       </c>
       <c r="D598">
         <v>525.5</v>
@@ -17564,13 +17564,13 @@
         <v>-6733.597</v>
       </c>
       <c r="G598">
-        <v>6460.342</v>
+        <v>5321.741</v>
       </c>
       <c r="H598">
-        <v>-2560.043</v>
+        <v>-1806.828</v>
       </c>
       <c r="I598">
-        <v>39380.727</v>
+        <v>39403.025</v>
       </c>
     </row>
     <row r="599" spans="1:9">
@@ -17578,10 +17578,10 @@
         <v>44501</v>
       </c>
       <c r="B599">
-        <v>49065.768</v>
+        <v>48949.624</v>
       </c>
       <c r="C599">
-        <v>666.989</v>
+        <v>635.179</v>
       </c>
       <c r="D599">
         <v>435.716</v>
@@ -17593,13 +17593,13 @@
         <v>-6558.675</v>
       </c>
       <c r="G599">
-        <v>7337.662</v>
+        <v>7513.716</v>
       </c>
       <c r="H599">
-        <v>-934.229</v>
+        <v>-977.89</v>
       </c>
       <c r="I599">
-        <v>36770.649</v>
+        <v>36490.302</v>
       </c>
     </row>
     <row r="600" spans="1:9">
@@ -17607,10 +17607,10 @@
         <v>44531</v>
       </c>
       <c r="B600">
-        <v>48670.406</v>
-      </c>
-      <c r="C600" t="s">
-        <v>15</v>
+        <v>48700.17</v>
+      </c>
+      <c r="C600">
+        <v>689.253</v>
       </c>
       <c r="D600">
         <v>689.079</v>
@@ -17621,14 +17621,14 @@
       <c r="F600">
         <v>-6708.169</v>
       </c>
-      <c r="G600" t="s">
-        <v>15</v>
-      </c>
-      <c r="H600" t="s">
-        <v>15</v>
-      </c>
-      <c r="I600" t="s">
-        <v>15</v>
+      <c r="G600">
+        <v>3005.771</v>
+      </c>
+      <c r="H600">
+        <v>1498.48</v>
+      </c>
+      <c r="I600">
+        <v>38177.003</v>
       </c>
     </row>
     <row r="601" spans="1:9">
@@ -17638,25 +17638,112 @@
       <c r="B601">
         <v>49630.927</v>
       </c>
-      <c r="C601" t="s">
-        <v>15</v>
-      </c>
-      <c r="D601" t="s">
-        <v>15</v>
-      </c>
-      <c r="E601" t="s">
-        <v>15</v>
-      </c>
-      <c r="F601" t="s">
-        <v>15</v>
-      </c>
-      <c r="G601" t="s">
-        <v>15</v>
-      </c>
-      <c r="H601" t="s">
-        <v>15</v>
-      </c>
-      <c r="I601" t="s">
+      <c r="C601">
+        <v>629</v>
+      </c>
+      <c r="D601">
+        <v>502.665</v>
+      </c>
+      <c r="E601">
+        <v>5710.333</v>
+      </c>
+      <c r="F601">
+        <v>-5207.668</v>
+      </c>
+      <c r="G601">
+        <v>-6671.094</v>
+      </c>
+      <c r="H601">
+        <v>-775.334</v>
+      </c>
+      <c r="I601">
+        <v>52498.687</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" s="6">
+        <v>44593</v>
+      </c>
+      <c r="B602">
+        <v>47115.346</v>
+      </c>
+      <c r="C602">
+        <v>629</v>
+      </c>
+      <c r="D602">
+        <v>289.29</v>
+      </c>
+      <c r="E602">
+        <v>7163.541</v>
+      </c>
+      <c r="F602">
+        <v>-6874.251</v>
+      </c>
+      <c r="G602">
+        <v>-2553.588</v>
+      </c>
+      <c r="H602">
+        <v>-8.668</v>
+      </c>
+      <c r="I602">
+        <v>43432.35</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603" s="6">
+        <v>44621</v>
+      </c>
+      <c r="B603">
+        <v>50692.195</v>
+      </c>
+      <c r="C603" t="s">
+        <v>15</v>
+      </c>
+      <c r="D603">
+        <v>529.709</v>
+      </c>
+      <c r="E603">
+        <v>7312.184</v>
+      </c>
+      <c r="F603">
+        <v>-6782.475</v>
+      </c>
+      <c r="G603" t="s">
+        <v>15</v>
+      </c>
+      <c r="H603" t="s">
+        <v>15</v>
+      </c>
+      <c r="I603" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B604">
+        <v>45495.472</v>
+      </c>
+      <c r="C604" t="s">
+        <v>15</v>
+      </c>
+      <c r="D604" t="s">
+        <v>15</v>
+      </c>
+      <c r="E604" t="s">
+        <v>15</v>
+      </c>
+      <c r="F604" t="s">
+        <v>15</v>
+      </c>
+      <c r="G604" t="s">
+        <v>15</v>
+      </c>
+      <c r="H604" t="s">
+        <v>15</v>
+      </c>
+      <c r="I604" t="s">
         <v>15</v>
       </c>
     </row>
@@ -17684,7 +17771,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -19878,6 +19965,35 @@
         <v>476693.102</v>
       </c>
     </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B85">
+        <v>578061.226</v>
+      </c>
+      <c r="C85">
+        <v>7856.296</v>
+      </c>
+      <c r="D85">
+        <v>5389.687</v>
+      </c>
+      <c r="E85">
+        <v>85208.289</v>
+      </c>
+      <c r="F85">
+        <v>-79818.602</v>
+      </c>
+      <c r="G85">
+        <v>-37315.29</v>
+      </c>
+      <c r="H85">
+        <v>-2257.189</v>
+      </c>
+      <c r="I85">
+        <v>545671.399</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <hyperlinks>
